--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ifnb1</t>
+  </si>
+  <si>
+    <t>Ifnar2</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Ifnb1</t>
-  </si>
-  <si>
-    <t>Ifnar2</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H2">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I2">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J2">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.47224833333333</v>
+        <v>27.85292233333333</v>
       </c>
       <c r="N2">
-        <v>70.41674499999999</v>
+        <v>83.55876699999999</v>
       </c>
       <c r="O2">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="P2">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="Q2">
-        <v>0.04851713730499999</v>
+        <v>2.909581257092111</v>
       </c>
       <c r="R2">
-        <v>0.436654235745</v>
+        <v>26.186231313829</v>
       </c>
       <c r="S2">
-        <v>0.009880645639039223</v>
+        <v>0.03919937746501384</v>
       </c>
       <c r="T2">
-        <v>0.009880645639039225</v>
+        <v>0.03919937746501384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H3">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I3">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J3">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>79.98248000000001</v>
       </c>
       <c r="O3">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="P3">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="Q3">
-        <v>0.05510792872</v>
+        <v>2.785052162195556</v>
       </c>
       <c r="R3">
-        <v>0.4959713584800001</v>
+        <v>25.06546945976001</v>
       </c>
       <c r="S3">
-        <v>0.01122287805566051</v>
+        <v>0.03752165735174049</v>
       </c>
       <c r="T3">
-        <v>0.01122287805566051</v>
+        <v>0.0375216573517405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H4">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I4">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J4">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.28694033333333</v>
+        <v>105.665011</v>
       </c>
       <c r="N4">
-        <v>201.860821</v>
+        <v>316.995033</v>
       </c>
       <c r="O4">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="P4">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="Q4">
-        <v>0.139082105669</v>
+        <v>11.03801360075233</v>
       </c>
       <c r="R4">
-        <v>1.251738951021</v>
+        <v>99.342122406771</v>
       </c>
       <c r="S4">
-        <v>0.02832444528224825</v>
+        <v>0.1487098050776829</v>
       </c>
       <c r="T4">
-        <v>0.02832444528224825</v>
+        <v>0.1487098050776829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H5">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I5">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J5">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.116759333333333</v>
+        <v>4.883238666666666</v>
       </c>
       <c r="N5">
-        <v>15.350278</v>
+        <v>14.649716</v>
       </c>
       <c r="O5">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="P5">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="Q5">
-        <v>0.010576341542</v>
+        <v>0.5101145053435555</v>
       </c>
       <c r="R5">
-        <v>0.09518707387799999</v>
+        <v>4.591030548092</v>
       </c>
       <c r="S5">
-        <v>0.002153900430625411</v>
+        <v>0.006872525383712911</v>
       </c>
       <c r="T5">
-        <v>0.002153900430625411</v>
+        <v>0.006872525383712913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H6">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I6">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J6">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.067047</v>
+        <v>71.84303666666666</v>
       </c>
       <c r="N6">
-        <v>231.201141</v>
+        <v>215.52911</v>
       </c>
       <c r="O6">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="P6">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="Q6">
-        <v>0.159297586149</v>
+        <v>7.504891243952222</v>
       </c>
       <c r="R6">
-        <v>1.433678275341</v>
+        <v>67.54402119557001</v>
       </c>
       <c r="S6">
-        <v>0.03244138230988301</v>
+        <v>0.1011097607219179</v>
       </c>
       <c r="T6">
-        <v>0.03244138230988301</v>
+        <v>0.1011097607219179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H7">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I7">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J7">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.47224833333333</v>
+        <v>27.85292233333333</v>
       </c>
       <c r="N7">
-        <v>70.41674499999999</v>
+        <v>83.55876699999999</v>
       </c>
       <c r="O7">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="P7">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="Q7">
-        <v>0.5289079957777777</v>
+        <v>5.817073545009221</v>
       </c>
       <c r="R7">
-        <v>4.760171961999999</v>
+        <v>52.35366190508299</v>
       </c>
       <c r="S7">
-        <v>0.1077135373647882</v>
+        <v>0.07837061126124235</v>
       </c>
       <c r="T7">
-        <v>0.1077135373647882</v>
+        <v>0.07837061126124235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H8">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I8">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J8">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>79.98248000000001</v>
       </c>
       <c r="O8">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="P8">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="Q8">
-        <v>0.6007572942222222</v>
+        <v>5.568104762391112</v>
       </c>
       <c r="R8">
-        <v>5.406815648</v>
+        <v>50.11294286152001</v>
       </c>
       <c r="S8">
-        <v>0.1223458404390664</v>
+        <v>0.07501637557421226</v>
       </c>
       <c r="T8">
-        <v>0.1223458404390664</v>
+        <v>0.07501637557421226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H9">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I9">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J9">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.28694033333333</v>
+        <v>105.665011</v>
       </c>
       <c r="N9">
-        <v>201.860821</v>
+        <v>316.995033</v>
       </c>
       <c r="O9">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="P9">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="Q9">
-        <v>1.516199055511111</v>
+        <v>22.06810232567967</v>
       </c>
       <c r="R9">
-        <v>13.6457914996</v>
+        <v>198.612920931117</v>
       </c>
       <c r="S9">
-        <v>0.3087780198484085</v>
+        <v>0.2973128421460275</v>
       </c>
       <c r="T9">
-        <v>0.3087780198484085</v>
+        <v>0.2973128421460275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H10">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I10">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J10">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.116759333333333</v>
+        <v>4.883238666666666</v>
       </c>
       <c r="N10">
-        <v>15.350278</v>
+        <v>14.649716</v>
       </c>
       <c r="O10">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="P10">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="Q10">
-        <v>0.1152976436444444</v>
+        <v>1.019862767787111</v>
       </c>
       <c r="R10">
-        <v>1.0376787928</v>
+        <v>9.178764910084</v>
       </c>
       <c r="S10">
-        <v>0.02348067555398771</v>
+        <v>0.01374011655441975</v>
       </c>
       <c r="T10">
-        <v>0.02348067555398771</v>
+        <v>0.01374011655441975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H11">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I11">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J11">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.067047</v>
+        <v>71.84303666666666</v>
       </c>
       <c r="N11">
-        <v>231.201141</v>
+        <v>215.52911</v>
       </c>
       <c r="O11">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="P11">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="Q11">
-        <v>1.736577459066667</v>
+        <v>15.00439426015445</v>
       </c>
       <c r="R11">
-        <v>15.6291971316</v>
+        <v>135.03954834139</v>
       </c>
       <c r="S11">
-        <v>0.3536586750762928</v>
+        <v>0.20214692846403</v>
       </c>
       <c r="T11">
-        <v>0.3536586750762928</v>
+        <v>0.20214692846403</v>
       </c>
     </row>
   </sheetData>
